--- a/Resultados/P_4.xlsx
+++ b/Resultados/P_4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="1">
   <si>
     <t>P</t>
   </si>
@@ -67,7 +67,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,243 +77,219 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.52318262159072715</v>
+        <v>1.9414753594299141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.41762271546790541</v>
+        <v>0.23469766615767973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.72059368426715642</v>
+        <v>0.21877893207977683</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.51680199631704038</v>
+        <v>0.18214706341586973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.53128815185637179</v>
+        <v>0.34546264877997407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.47014801349351937</v>
+        <v>0.51629101543134304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.70799440652561851</v>
+        <v>0.0073631068615285268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7508837849977027</v>
+        <v>0.0028750163050492022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.42931400565983546</v>
+        <v>0.29471169477320536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.32180080265055067</v>
+        <v>0.043552393604498897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.76146886912356682</v>
+        <v>-0.0034754483582200065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3803670157956256</v>
+        <v>0.017709864429087417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.33841247240062322</v>
+        <v>0.11296423299076232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.30200456496601319</v>
+        <v>0.091467990848584896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.54952758979304406</v>
+        <v>-0.012489612917206102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.58096225919346534</v>
+        <v>-0.014499092378488274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.15245521833355158</v>
+        <v>0.0011443261883168345</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.17947937390871491</v>
+        <v>0.049359856795123627</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.12168203888003606</v>
+        <v>-0.0088270234243797846</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.41416934109477704</v>
+        <v>0.14917593492566514</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.043234640276878157</v>
+        <v>0.013804827815207282</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.067027390190205677</v>
+        <v>0.014462108052281153</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.18226202535185693</v>
+        <v>-0.016977074472193487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.18067368050719396</v>
+        <v>-0.02008317986913347</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.18596291460824668</v>
+        <v>-0.0034723907632333998</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.122991072426635</v>
+        <v>-0.013411075268961393</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.019391235432179334</v>
+        <v>-0.015439810363593542</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.15727161615317803</v>
+        <v>-0.013747893018682842</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.2167103000590466</v>
+        <v>-0.011393806590609613</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.2158324877719156</v>
+        <v>-0.010505168458313716</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.19006586931930367</v>
+        <v>-0.014742668674386571</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.19463010579614604</v>
+        <v>-0.01626663001742806</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1.0114847005709837</v>
+        <v>-0.0047376105195059024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.62956749603054019</v>
+        <v>-0.01363248139249305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.1798277676244999</v>
+        <v>-0.0083381313746529531</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.20574694436812033</v>
+        <v>-0.012980150876349359</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0">
-        <v>0.33768331986478928</v>
-      </c>
+      <c r="A38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0">
-        <v>0.40884858226001675</v>
-      </c>
+      <c r="A39" s="0"/>
     </row>
     <row r="40">
-      <c r="A40" s="0">
-        <v>0.31834384606315558</v>
-      </c>
+      <c r="A40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0">
-        <v>0.23884187814993973</v>
-      </c>
+      <c r="A41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" s="0">
-        <v>0.69874627913264786</v>
-      </c>
+      <c r="A42" s="0"/>
     </row>
     <row r="43">
-      <c r="A43" s="0">
-        <v>0.73069979268379259</v>
-      </c>
+      <c r="A43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>0.27487389580185156</v>
-      </c>
+      <c r="A44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0">
-        <v>0.18724973435710612</v>
-      </c>
+      <c r="A45" s="0"/>
     </row>
     <row r="46">
-      <c r="A46" s="0">
-        <v>0.54691934589192859</v>
-      </c>
+      <c r="A46" s="0"/>
     </row>
     <row r="47">
-      <c r="A47" s="0">
-        <v>0.56343193746316966</v>
-      </c>
+      <c r="A47" s="0"/>
     </row>
     <row r="48">
-      <c r="A48" s="0">
-        <v>0.25027762098757256</v>
-      </c>
+      <c r="A48" s="0"/>
     </row>
     <row r="49">
-      <c r="A49" s="0">
-        <v>0.20800888550676006</v>
-      </c>
+      <c r="A49" s="0"/>
     </row>
   </sheetData>
 </worksheet>
